--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H2">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I2">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J2">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N2">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O2">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P2">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q2">
-        <v>146.6145881015387</v>
+        <v>310.667933439977</v>
       </c>
       <c r="R2">
-        <v>1319.531292913848</v>
+        <v>2796.011400959793</v>
       </c>
       <c r="S2">
-        <v>0.04252588215020576</v>
+        <v>0.114508891901179</v>
       </c>
       <c r="T2">
-        <v>0.04252588215020576</v>
+        <v>0.1145088919011789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H3">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I3">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J3">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.350685</v>
       </c>
       <c r="O3">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P3">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q3">
-        <v>0.4630217215011111</v>
+        <v>1.239214617787222</v>
       </c>
       <c r="R3">
-        <v>4.16719549351</v>
+        <v>11.152931560085</v>
       </c>
       <c r="S3">
-        <v>0.0001343004636612624</v>
+        <v>0.0004567613114727015</v>
       </c>
       <c r="T3">
-        <v>0.0001343004636612623</v>
+        <v>0.0004567613114727014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H4">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I4">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J4">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N4">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O4">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P4">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q4">
-        <v>1.437943002855778</v>
+        <v>6.023447208590111</v>
       </c>
       <c r="R4">
-        <v>12.941487025702</v>
+        <v>54.211024877311</v>
       </c>
       <c r="S4">
-        <v>0.0004170785149688393</v>
+        <v>0.002220178496195408</v>
       </c>
       <c r="T4">
-        <v>0.0004170785149688392</v>
+        <v>0.002220178496195407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H5">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I5">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J5">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N5">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O5">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P5">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q5">
-        <v>2.339501247991778</v>
+        <v>7.594816685372114</v>
       </c>
       <c r="R5">
-        <v>21.055511231926</v>
+        <v>68.35335016834902</v>
       </c>
       <c r="S5">
-        <v>0.0006785774570635208</v>
+        <v>0.002799368551510232</v>
       </c>
       <c r="T5">
-        <v>0.0006785774570635208</v>
+        <v>0.002799368551510231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H6">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I6">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J6">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N6">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O6">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P6">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q6">
-        <v>3.793136154808667</v>
+        <v>10.99164011921833</v>
       </c>
       <c r="R6">
-        <v>34.13822539327801</v>
+        <v>98.924761072965</v>
       </c>
       <c r="S6">
-        <v>0.001100207443118583</v>
+        <v>0.004051401495775589</v>
       </c>
       <c r="T6">
-        <v>0.001100207443118583</v>
+        <v>0.004051401495775588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.028415333333333</v>
+        <v>2.752413666666667</v>
       </c>
       <c r="H7">
-        <v>3.085246</v>
+        <v>8.257241</v>
       </c>
       <c r="I7">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="J7">
-        <v>0.04565156193945813</v>
+        <v>0.1251216043609721</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N7">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O7">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P7">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q7">
-        <v>2.742664740626445</v>
+        <v>2.943662377881334</v>
       </c>
       <c r="R7">
-        <v>24.683982665638</v>
+        <v>26.492961400932</v>
       </c>
       <c r="S7">
-        <v>0.0007955159104401617</v>
+        <v>0.001085002604839183</v>
       </c>
       <c r="T7">
-        <v>0.0007955159104401616</v>
+        <v>0.001085002604839183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H8">
         <v>14.776831</v>
       </c>
       <c r="I8">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J8">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N8">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O8">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P8">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q8">
-        <v>702.2127216147586</v>
+        <v>555.959012164207</v>
       </c>
       <c r="R8">
-        <v>6319.914494532828</v>
+        <v>5003.631109477863</v>
       </c>
       <c r="S8">
-        <v>0.2036783367224225</v>
+        <v>0.2049205713653011</v>
       </c>
       <c r="T8">
-        <v>0.2036783367224225</v>
+        <v>0.2049205713653011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H9">
         <v>14.776831</v>
       </c>
       <c r="I9">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J9">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.350685</v>
       </c>
       <c r="O9">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P9">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q9">
         <v>2.217649331026111</v>
@@ -1013,10 +1013,10 @@
         <v>19.958843979235</v>
       </c>
       <c r="S9">
-        <v>0.0006432340418702804</v>
+        <v>0.0008174019272261124</v>
       </c>
       <c r="T9">
-        <v>0.0006432340418702803</v>
+        <v>0.0008174019272261122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H10">
         <v>14.776831</v>
       </c>
       <c r="I10">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J10">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N10">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O10">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P10">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q10">
-        <v>6.887049117260778</v>
+        <v>10.77932222624456</v>
       </c>
       <c r="R10">
-        <v>61.983442055347</v>
+        <v>97.01390003620099</v>
       </c>
       <c r="S10">
-        <v>0.001997603669018778</v>
+        <v>0.003973143381441051</v>
       </c>
       <c r="T10">
-        <v>0.001997603669018777</v>
+        <v>0.00397314338144105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H11">
         <v>14.776831</v>
       </c>
       <c r="I11">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J11">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N11">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O11">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P11">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q11">
-        <v>11.20507556475678</v>
+        <v>13.59138271920656</v>
       </c>
       <c r="R11">
-        <v>100.845680082811</v>
+        <v>122.322444472859</v>
       </c>
       <c r="S11">
-        <v>0.003250056690272802</v>
+        <v>0.005009638932953695</v>
       </c>
       <c r="T11">
-        <v>0.003250056690272802</v>
+        <v>0.005009638932953693</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H12">
         <v>14.776831</v>
       </c>
       <c r="I12">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J12">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N12">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O12">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P12">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q12">
-        <v>18.16728128635367</v>
+        <v>19.67020321370167</v>
       </c>
       <c r="R12">
-        <v>163.505531577183</v>
+        <v>177.031828923315</v>
       </c>
       <c r="S12">
-        <v>0.005269459696862229</v>
+        <v>0.007250227432652516</v>
       </c>
       <c r="T12">
-        <v>0.005269459696862229</v>
+        <v>0.007250227432652514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.925610333333333</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H13">
         <v>14.776831</v>
       </c>
       <c r="I13">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684906</v>
       </c>
       <c r="J13">
-        <v>0.2186488259495045</v>
+        <v>0.2239126606684905</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N13">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O13">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P13">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q13">
-        <v>13.13603303007145</v>
+        <v>5.267861441734668</v>
       </c>
       <c r="R13">
-        <v>118.224297270643</v>
+        <v>47.41075297561201</v>
       </c>
       <c r="S13">
-        <v>0.003810135129057911</v>
+        <v>0.00194167762891605</v>
       </c>
       <c r="T13">
-        <v>0.00381013512905791</v>
+        <v>0.00194167762891605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H14">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I14">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J14">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N14">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O14">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P14">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q14">
-        <v>623.487773309996</v>
+        <v>229.6022604411089</v>
       </c>
       <c r="R14">
-        <v>5611.389959789964</v>
+        <v>2066.420343969981</v>
       </c>
       <c r="S14">
-        <v>0.1808439931742156</v>
+        <v>0.08462894811831928</v>
       </c>
       <c r="T14">
-        <v>0.1808439931742156</v>
+        <v>0.08462894811831928</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H15">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I15">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J15">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.350685</v>
       </c>
       <c r="O15">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P15">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q15">
-        <v>1.969029043228333</v>
+        <v>0.9158540254383331</v>
       </c>
       <c r="R15">
-        <v>17.721261389055</v>
+        <v>8.242686228944999</v>
       </c>
       <c r="S15">
-        <v>0.0005711211832799996</v>
+        <v>0.0003375740406643542</v>
       </c>
       <c r="T15">
-        <v>0.0005711211832799994</v>
+        <v>0.0003375740406643542</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H16">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I16">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J16">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N16">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O16">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P16">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q16">
-        <v>6.114943216812334</v>
+        <v>4.451689234309666</v>
       </c>
       <c r="R16">
-        <v>55.034488951311</v>
+        <v>40.06520310878699</v>
       </c>
       <c r="S16">
-        <v>0.001773652662811883</v>
+        <v>0.001640845244839845</v>
       </c>
       <c r="T16">
-        <v>0.001773652662811882</v>
+        <v>0.001640845244839845</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H17">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I17">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J17">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N17">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O17">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P17">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q17">
-        <v>9.948876456660333</v>
+        <v>5.613025648603667</v>
       </c>
       <c r="R17">
-        <v>89.53988810994301</v>
+        <v>50.517230837433</v>
       </c>
       <c r="S17">
-        <v>0.002885693389732027</v>
+        <v>0.00206890147984547</v>
       </c>
       <c r="T17">
-        <v>0.002885693389732027</v>
+        <v>0.002068901479845469</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H18">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I18">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J18">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N18">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O18">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P18">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q18">
-        <v>16.130550483731</v>
+        <v>8.123482167544998</v>
       </c>
       <c r="R18">
-        <v>145.174954353579</v>
+        <v>73.11133950790499</v>
       </c>
       <c r="S18">
-        <v>0.004678701470102143</v>
+        <v>0.002994229018374977</v>
       </c>
       <c r="T18">
-        <v>0.004678701470102142</v>
+        <v>0.002994229018374977</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.373401</v>
+        <v>2.034199</v>
       </c>
       <c r="H19">
-        <v>13.120203</v>
+        <v>6.102596999999999</v>
       </c>
       <c r="I19">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="J19">
-        <v>0.1941361434105301</v>
+        <v>0.09247237998847979</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N19">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O19">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P19">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q19">
-        <v>11.66335461028434</v>
+        <v>2.175543283316</v>
       </c>
       <c r="R19">
-        <v>104.970191492559</v>
+        <v>19.579889549844</v>
       </c>
       <c r="S19">
-        <v>0.003382981530388417</v>
+        <v>0.0008018820864358668</v>
       </c>
       <c r="T19">
-        <v>0.003382981530388416</v>
+        <v>0.0008018820864358668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H20">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I20">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J20">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N20">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O20">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P20">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q20">
-        <v>666.9979452032027</v>
+        <v>357.91761569373</v>
       </c>
       <c r="R20">
-        <v>6002.981506828824</v>
+        <v>3221.25854124357</v>
       </c>
       <c r="S20">
-        <v>0.1934642137554327</v>
+        <v>0.1319246216086204</v>
       </c>
       <c r="T20">
-        <v>0.1934642137554327</v>
+        <v>0.1319246216086204</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H21">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I21">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J21">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.350685</v>
       </c>
       <c r="O21">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P21">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q21">
-        <v>2.106437980181111</v>
+        <v>1.42768755185</v>
       </c>
       <c r="R21">
-        <v>18.95794182163</v>
+        <v>12.84918796665</v>
       </c>
       <c r="S21">
-        <v>0.0006109769461676051</v>
+        <v>0.0005262304278823691</v>
       </c>
       <c r="T21">
-        <v>0.0006109769461676049</v>
+        <v>0.000526230427882369</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H22">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I22">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J22">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N22">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O22">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P22">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q22">
-        <v>6.541675290591779</v>
+        <v>6.93955709971</v>
       </c>
       <c r="R22">
-        <v>58.875077615326</v>
+        <v>62.45601389738999</v>
       </c>
       <c r="S22">
-        <v>0.001897427234730263</v>
+        <v>0.002557846846225219</v>
       </c>
       <c r="T22">
-        <v>0.001897427234730262</v>
+        <v>0.002557846846225218</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H23">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I23">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J23">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N23">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O23">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P23">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q23">
-        <v>10.64316003895978</v>
+        <v>8.749917152890003</v>
       </c>
       <c r="R23">
-        <v>95.788440350638</v>
+        <v>78.74925437601001</v>
       </c>
       <c r="S23">
-        <v>0.003087071862242833</v>
+        <v>0.003225126282942023</v>
       </c>
       <c r="T23">
-        <v>0.003087071862242833</v>
+        <v>0.003225126282942022</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H24">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I24">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J24">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N24">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O24">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P24">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q24">
-        <v>17.25622295771267</v>
+        <v>12.66336560865</v>
       </c>
       <c r="R24">
-        <v>155.306006619414</v>
+        <v>113.97029047785</v>
       </c>
       <c r="S24">
-        <v>0.005005205234755645</v>
+        <v>0.004667581708641881</v>
       </c>
       <c r="T24">
-        <v>0.005005205234755644</v>
+        <v>0.00466758170864188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.678599333333334</v>
+        <v>3.17103</v>
       </c>
       <c r="H25">
-        <v>14.035798</v>
+        <v>9.51309</v>
       </c>
       <c r="I25">
-        <v>0.2076839583510432</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="J25">
-        <v>0.2076839583510431</v>
+        <v>0.1441514282107449</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N25">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O25">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P25">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q25">
-        <v>12.47728326401045</v>
+        <v>3.39136584852</v>
       </c>
       <c r="R25">
-        <v>112.295549376094</v>
+        <v>30.52229263668</v>
       </c>
       <c r="S25">
-        <v>0.003619063317714115</v>
+        <v>0.001250021336433027</v>
       </c>
       <c r="T25">
-        <v>0.003619063317714113</v>
+        <v>0.001250021336433027</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H26">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I26">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J26">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N26">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O26">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P26">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q26">
-        <v>256.0972045525133</v>
+        <v>198.216196166739</v>
       </c>
       <c r="R26">
-        <v>2304.87484097262</v>
+        <v>1783.945765500651</v>
       </c>
       <c r="S26">
-        <v>0.07428155465849598</v>
+        <v>0.07306037906324601</v>
       </c>
       <c r="T26">
-        <v>0.07428155465849599</v>
+        <v>0.073060379063246</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H27">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I27">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J27">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.350685</v>
       </c>
       <c r="O27">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P27">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q27">
-        <v>0.8087774215305555</v>
+        <v>0.7906590327883334</v>
       </c>
       <c r="R27">
-        <v>7.278996793775</v>
+        <v>7.115931295095001</v>
       </c>
       <c r="S27">
-        <v>0.000234587661153718</v>
+        <v>0.0002914284996000155</v>
       </c>
       <c r="T27">
-        <v>0.000234587661153718</v>
+        <v>0.0002914284996000155</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H28">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I28">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J28">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N28">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O28">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P28">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q28">
-        <v>2.511709019583889</v>
+        <v>3.843154265319667</v>
       </c>
       <c r="R28">
-        <v>22.605381176255</v>
+        <v>34.588388387877</v>
       </c>
       <c r="S28">
-        <v>0.0007285266980967793</v>
+        <v>0.001416545735680409</v>
       </c>
       <c r="T28">
-        <v>0.0007285266980967793</v>
+        <v>0.001416545735680409</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H29">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I29">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J29">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N29">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O29">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P29">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q29">
-        <v>4.086494648423889</v>
+        <v>4.845738848193669</v>
       </c>
       <c r="R29">
-        <v>36.77845183581501</v>
+        <v>43.61164963374301</v>
       </c>
       <c r="S29">
-        <v>0.001185296716217402</v>
+        <v>0.001786087736204543</v>
       </c>
       <c r="T29">
-        <v>0.001185296716217402</v>
+        <v>0.001786087736204543</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H30">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I30">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J30">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N30">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O30">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P30">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q30">
-        <v>6.625613305688334</v>
+        <v>7.013022135695</v>
       </c>
       <c r="R30">
-        <v>59.63051975119501</v>
+        <v>63.117199221255</v>
       </c>
       <c r="S30">
-        <v>0.001921773639710415</v>
+        <v>0.002584925276145466</v>
       </c>
       <c r="T30">
-        <v>0.001921773639710415</v>
+        <v>0.002584925276145466</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.796371666666667</v>
+        <v>1.756129</v>
       </c>
       <c r="H31">
-        <v>5.389115</v>
+        <v>5.268387000000001</v>
       </c>
       <c r="I31">
-        <v>0.07974129687595831</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="J31">
-        <v>0.07974129687595832</v>
+        <v>0.07983163308839945</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N31">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O31">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P31">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q31">
-        <v>4.790715454677223</v>
+        <v>1.878151867436</v>
       </c>
       <c r="R31">
-        <v>43.116439092095</v>
+        <v>16.90336680692401</v>
       </c>
       <c r="S31">
-        <v>0.00138955750228401</v>
+        <v>0.0006922667775230117</v>
       </c>
       <c r="T31">
-        <v>0.00138955750228401</v>
+        <v>0.0006922667775230117</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H32">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I32">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J32">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N32">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O32">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P32">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q32">
-        <v>816.1904632900107</v>
+        <v>830.564970642957</v>
       </c>
       <c r="R32">
-        <v>7345.714169610097</v>
+        <v>7475.084735786612</v>
       </c>
       <c r="S32">
-        <v>0.2367378301397593</v>
+        <v>0.3061374033269369</v>
       </c>
       <c r="T32">
-        <v>0.2367378301397593</v>
+        <v>0.3061374033269368</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H33">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I33">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J33">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.350685</v>
       </c>
       <c r="O33">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P33">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q33">
-        <v>2.577601030557778</v>
+        <v>3.313017346998333</v>
       </c>
       <c r="R33">
-        <v>23.19840927502</v>
+        <v>29.817156122985</v>
       </c>
       <c r="S33">
-        <v>0.0007476388200868165</v>
+        <v>0.001221142913120962</v>
       </c>
       <c r="T33">
-        <v>0.0007476388200868164</v>
+        <v>0.001221142913120962</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H34">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I34">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J34">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N34">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O34">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P34">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q34">
-        <v>8.004901701000446</v>
+        <v>16.10357463860566</v>
       </c>
       <c r="R34">
-        <v>72.04411530900401</v>
+        <v>144.932171747451</v>
       </c>
       <c r="S34">
-        <v>0.002321839257393474</v>
+        <v>0.005935606121611311</v>
       </c>
       <c r="T34">
-        <v>0.002321839257393473</v>
+        <v>0.005935606121611311</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H35">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I35">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J35">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N35">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O35">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P35">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q35">
-        <v>13.02379682807245</v>
+        <v>20.30460185406767</v>
       </c>
       <c r="R35">
-        <v>117.214171452652</v>
+        <v>182.741416686609</v>
       </c>
       <c r="S35">
-        <v>0.003777580773035094</v>
+        <v>0.007484060015653751</v>
       </c>
       <c r="T35">
-        <v>0.003777580773035094</v>
+        <v>0.00748406001565375</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H36">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I36">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J36">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N36">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O36">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P36">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q36">
-        <v>21.11605397255067</v>
+        <v>29.38594644078499</v>
       </c>
       <c r="R36">
-        <v>190.044485752956</v>
+        <v>264.473517967065</v>
       </c>
       <c r="S36">
-        <v>0.006124757667989861</v>
+        <v>0.01083134692126767</v>
       </c>
       <c r="T36">
-        <v>0.006124757667989861</v>
+        <v>0.01083134692126767</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.725097333333334</v>
+        <v>7.358527</v>
       </c>
       <c r="H37">
-        <v>17.175292</v>
+        <v>22.075581</v>
       </c>
       <c r="I37">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="J37">
-        <v>0.2541382134735057</v>
+        <v>0.3345102936829132</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N37">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O37">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P37">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q37">
-        <v>15.26817238507511</v>
+        <v>7.869826890068</v>
       </c>
       <c r="R37">
-        <v>137.413551465676</v>
+        <v>70.82844201061201</v>
       </c>
       <c r="S37">
-        <v>0.004428566815241191</v>
+        <v>0.002900734384322606</v>
       </c>
       <c r="T37">
-        <v>0.004428566815241191</v>
+        <v>0.002900734384322606</v>
       </c>
     </row>
   </sheetData>
